--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,22 +55,25 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shame</t>
@@ -79,42 +82,42 @@
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -142,19 +142,40 @@
     <t>strong</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>creative</t>
   </si>
   <si>
     <t>positive</t>
@@ -163,150 +184,126 @@
     <t>friends</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>special</t>
+    <t>support</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>boost</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>sure</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
@@ -316,34 +313,37 @@
     <t>online</t>
   </si>
   <si>
-    <t>retail</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -710,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,31 +897,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9565217391304348</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,16 +1000,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.9545454545454546</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.702054794520548</v>
+        <v>0.6815068493150684</v>
       </c>
       <c r="C9">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.64</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1229,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5666666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L12">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>0.875</v>
-      </c>
-      <c r="L12">
-        <v>98</v>
-      </c>
       <c r="M12">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5135135135135135</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L14">
         <v>23</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8170731707317073</v>
+        <v>0.8359375</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4102564102564102</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1447,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8098591549295775</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1479,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.36</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.8076923076923077</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1529,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.358974358974359</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1547,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1579,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1629,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3221476510067114</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1647,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3220338983050847</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1729,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3137254901960784</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.7416666666666667</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1779,37 +1779,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3068783068783069</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>36</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D23">
-        <v>58</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>131</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K23">
-        <v>0.7358490566037735</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1829,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2745098039215687</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7254901960784313</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1879,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2545454545454545</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1929,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2542372881355932</v>
+        <v>0.2375</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1947,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.71875</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L26">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M26">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1979,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2467532467532468</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2029,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2333333333333333</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.6956521739130435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2079,49 +2079,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1746031746031746</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>73</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.725</v>
+      </c>
+      <c r="L29">
+        <v>116</v>
+      </c>
+      <c r="M29">
+        <v>116</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>44</v>
-      </c>
-      <c r="D29">
-        <v>44</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>208</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29">
-        <v>0.6875</v>
-      </c>
-      <c r="L29">
-        <v>33</v>
-      </c>
-      <c r="M29">
-        <v>33</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2129,89 +2129,113 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09139784946236559</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.08847184986595175</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>340</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
         <v>0.6595744680851063</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>62</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>62</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.6266318537859008</v>
-      </c>
-      <c r="L31">
-        <v>240</v>
-      </c>
-      <c r="M31">
-        <v>240</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.6129032258064516</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.6111111111111112</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2249,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2275,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.5813953488372093</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2301,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2327,21 +2351,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2353,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2379,21 +2403,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5558823529411765</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2405,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2431,21 +2455,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2457,21 +2481,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.55</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2483,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.5294117647058824</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2509,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.5280898876404494</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2535,21 +2559,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.5111111111111111</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2561,21 +2585,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2587,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.4949152542372882</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2613,21 +2637,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.4560669456066946</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L48">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2639,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.4523809523809524</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2665,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.4520547945205479</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2691,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.4307692307692308</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2717,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2743,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.425</v>
+        <v>0.40625</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2769,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.4230769230769231</v>
+        <v>0.4</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2795,21 +2819,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.40625</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2821,21 +2845,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.3829787234042553</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2847,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.3</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2873,21 +2897,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.2786885245901639</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2899,21 +2923,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.2372881355932203</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2925,21 +2949,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.2222222222222222</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2951,21 +2975,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.2203389830508475</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2977,21 +3001,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.1450381679389313</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3003,21 +3027,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>112</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.1338582677165354</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3029,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>110</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.125</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M64">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3055,21 +3079,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>364</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.1148325358851675</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L65">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3081,21 +3105,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>370</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.09433962264150944</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3107,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0.07906976744186046</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3133,15 +3157,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>198</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K68">
-        <v>0.06511627906976744</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L68">
         <v>14</v>
@@ -3159,21 +3183,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K69">
-        <v>0.06375838926174497</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L69">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M69">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3185,21 +3209,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>837</v>
+        <v>859</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K70">
-        <v>0.0581039755351682</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3211,47 +3235,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K71">
-        <v>0.04328523862375139</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>862</v>
+        <v>629</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K72">
-        <v>0.03384615384615385</v>
+        <v>0.02674897119341564</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3263,47 +3287,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>628</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K73">
-        <v>0.02880658436213992</v>
+        <v>0.02618045815801777</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>472</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K74">
-        <v>0.0265282583621684</v>
+        <v>0.01845444059976932</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3315,111 +3339,85 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K75">
-        <v>0.02476635514018691</v>
+        <v>0.01549586776859504</v>
       </c>
       <c r="L75">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2087</v>
+        <v>953</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K76">
-        <v>0.02171664943123061</v>
+        <v>0.01452081316553727</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>946</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K77">
-        <v>0.01450209474701901</v>
+        <v>0.006887914840325611</v>
       </c>
       <c r="L77">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N77">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="O77">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K78">
-        <v>0.008461297398934503</v>
-      </c>
-      <c r="L78">
-        <v>27</v>
-      </c>
-      <c r="M78">
-        <v>37</v>
-      </c>
-      <c r="N78">
-        <v>0.73</v>
-      </c>
-      <c r="O78">
-        <v>0.27</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>3164</v>
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
